--- a/biology/Zoologie/Chilongius/Chilongius.xlsx
+++ b/biology/Zoologie/Chilongius/Chilongius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilongius est un genre d'araignées aranéomorphes de la famille des Prodidomidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilongius est un genre d'araignées aranéomorphes de la famille des Prodidomidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Chili[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Chili.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre mesurent de 3,3 à 5,6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre mesurent de 3,3 à 5,6 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 30/01/2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 30/01/2022) :
 Chilongius eltofo Platnick, Shadab &amp; Sorkin, 2005
 Chilongius frayjorge Platnick, Shadab &amp; Sorkin, 2005
 Chilongius huasco Platnick, Shadab &amp; Sorkin, 2005
@@ -608,9 +626,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Platnick, Shadab et Sorkin en 2005 dans les Prodidomidae. Il est placé dans les Gnaphosidae par Azevedo, Griswold et Santos en 2018[4] puis dans les Prodidomidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Platnick, Shadab et Sorkin en 2005 dans les Prodidomidae. Il est placé dans les Gnaphosidae par Azevedo, Griswold et Santos en 2018 puis dans les Prodidomidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Platnick, Shadab &amp; Sorkin, 2005 : « On the Chilean spiders of the family Prodidomidae (Araneae, Gnaphosoidea), with a revision of the genus Moreno Mello-Leitão. » American Museum novitates, no 3499, p. 1-31 (texte intégral).</t>
         </is>
